--- a/applications/us_states/US-cities-data-group1/archive/Brevard_projections.xlsx
+++ b/applications/us_states/US-cities-data-group1/archive/Brevard_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>14046</v>
+        <v>6384</v>
       </c>
       <c r="B4">
-        <v>2098</v>
+        <v>2050</v>
       </c>
       <c r="C4">
-        <v>23640</v>
+        <v>11466</v>
       </c>
       <c r="D4">
-        <v>1.521818294496956</v>
+        <v>0.6917284967365771</v>
       </c>
       <c r="E4">
-        <v>0.2273077588148389</v>
+        <v>0.2221613724737022</v>
       </c>
       <c r="F4">
-        <v>2.561307293364823</v>
+        <v>1.242381000740646</v>
       </c>
       <c r="G4">
-        <v>118044</v>
+        <v>84423</v>
       </c>
       <c r="H4">
-        <v>37239</v>
+        <v>35673</v>
       </c>
       <c r="I4">
-        <v>128066</v>
+        <v>106604</v>
       </c>
       <c r="J4">
-        <v>0.04778709576670177</v>
+        <v>0.02831751231846258</v>
       </c>
       <c r="K4">
-        <v>0.01511109043728466</v>
+        <v>0.01522156619740772</v>
       </c>
       <c r="L4">
-        <v>0.05559281791268925</v>
+        <v>0.03352731658531885</v>
       </c>
       <c r="M4">
-        <v>16904</v>
+        <v>4647</v>
       </c>
       <c r="N4">
-        <v>1943</v>
+        <v>1907</v>
       </c>
       <c r="O4">
-        <v>83955</v>
+        <v>15549</v>
       </c>
       <c r="P4">
-        <v>1.914776252982392</v>
+        <v>0.5264324771852076</v>
       </c>
       <c r="Q4">
-        <v>0.2201397537243848</v>
+        <v>0.2160054079508113</v>
       </c>
       <c r="R4">
-        <v>9.50963790884111</v>
+        <v>1.761334148472777</v>
       </c>
       <c r="S4">
-        <v>102408</v>
+        <v>68556</v>
       </c>
       <c r="T4">
-        <v>34943</v>
+        <v>33681</v>
       </c>
       <c r="U4">
-        <v>141262</v>
+        <v>111189</v>
       </c>
       <c r="V4">
-        <v>0.07645815762980485</v>
+        <v>0.03620315578577338</v>
       </c>
       <c r="W4">
-        <v>0.01839296809327145</v>
+        <v>0.01839130680364554</v>
       </c>
       <c r="X4">
-        <v>0.200942376449133</v>
+        <v>0.05923561406248443</v>
       </c>
     </row>
   </sheetData>
